--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6913838330010948</v>
+        <v>-0.2335231013132174</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.008969186011422782</v>
+        <v>-0.3172397222530735</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.3209957519671751</v>
+        <v>1.386253277137888</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6074788789701245</v>
+        <v>1.14400355991787</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1801618633898474</v>
+        <v>2.147273655605619</v>
       </c>
       <c r="F4" t="n">
-        <v>1.015506601189747</v>
+        <v>-0.04070456760541525</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.9099224808348104</v>
+        <v>-0.1889064733194419</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.460179747234125</v>
+        <v>1.948117357337936</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.4071173878977153</v>
+        <v>0.1131822421980072</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4203729631006519</v>
+        <v>-1.032325985583441</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.5814636906317183</v>
+        <v>1.176395668559272</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7332283600194104</v>
+        <v>-0.4112062637592159</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2174420476041319</v>
+        <v>-0.9000153324617726</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4651936517335662</v>
+        <v>-0.1918122020026307</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.1631394225004692</v>
+        <v>0.2334402613497747</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1271839911219797</v>
+        <v>1.176993267673663</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7345824206653371</v>
+        <v>-0.6685209173129761</v>
       </c>
       <c r="F10" t="n">
-        <v>1.299573671436918</v>
+        <v>-0.8813423074437322</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1.826689842538132</v>
+        <v>2.115061205072527</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6444004985955715</v>
+        <v>2.051682083264649</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1.081505383378113</v>
+        <v>-0.5528612460179783</v>
       </c>
       <c r="F12" t="n">
-        <v>1.065677169803507</v>
+        <v>0.6316178393080277</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.5958629323317274</v>
+        <v>0.592482953217171</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.061792402461169</v>
+        <v>0.5381812758527321</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.707940353249602</v>
+        <v>-2.007379635945866</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7576039975283403</v>
+        <v>-0.7932501335346021</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.4543127869182315</v>
+        <v>-1.899607018406318</v>
       </c>
       <c r="F15" t="n">
-        <v>0.445432070257033</v>
+        <v>-0.304369331456773</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.409367249409591</v>
+        <v>-0.4340548300510894</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.794691865291513</v>
+        <v>-1.638244245072806</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.5609472402982408</v>
+        <v>0.2102590585728365</v>
       </c>
       <c r="F17" t="n">
-        <v>0.658588782878072</v>
+        <v>0.5178731093051192</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.4168555199277</v>
+        <v>0.2414126634162029</v>
       </c>
       <c r="F18" t="n">
-        <v>1.374044699981849</v>
+        <v>1.876469780957985</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.08020337587005207</v>
+        <v>1.405400865809699</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01906746962290472</v>
+        <v>-0.6290736147649679</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.132799541463004</v>
+        <v>0.7253387267876777</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.04451961024945249</v>
+        <v>-0.1047248476118564</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.973354263618848</v>
+        <v>0.7134397216511276</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.164446539097518</v>
+        <v>2.126092021225311</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.9364014877670028</v>
+        <v>-0.446461373720544</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2287277695842352</v>
+        <v>-0.4143610276275757</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.855723986259981</v>
+        <v>-1.053740018524536</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1486237219958884</v>
+        <v>0.1496973810601769</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.2621976492391828</v>
+        <v>0.5654801983386762</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4095905252509915</v>
+        <v>0.3311412455941948</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-2.403625913704347</v>
+        <v>-0.5872051513101276</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3946129258859239</v>
+        <v>-0.8296399909702128</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.2335231013132174</v>
+        <v>1.418452516224823</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3172397222530735</v>
+        <v>0.2900027486410862</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.386253277137888</v>
+        <v>0.1737619219072195</v>
       </c>
       <c r="F3" t="n">
-        <v>1.14400355991787</v>
+        <v>-0.1318117818907587</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.147273655605619</v>
+        <v>0.1381504959447129</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04070456760541525</v>
+        <v>-0.3655512119490577</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.1889064733194419</v>
+        <v>-0.1912982778877517</v>
       </c>
       <c r="F5" t="n">
-        <v>1.948117357337936</v>
+        <v>-1.729415394796793</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1131822421980072</v>
+        <v>-0.01296016052956615</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.032325985583441</v>
+        <v>-1.279551655276576</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.176395668559272</v>
+        <v>-1.464917713855024</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4112062637592159</v>
+        <v>-0.7914923003165365</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.9000153324617726</v>
+        <v>-0.452366477253921</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1918122020026307</v>
+        <v>0.01817350524292839</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2334402613497747</v>
+        <v>0.2969536772395763</v>
       </c>
       <c r="F9" t="n">
-        <v>1.176993267673663</v>
+        <v>0.4283666746704811</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.6685209173129761</v>
+        <v>0.6186244072840301</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8813423074437322</v>
+        <v>-0.09984424628762247</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.115061205072527</v>
+        <v>0.5169602170358595</v>
       </c>
       <c r="F11" t="n">
-        <v>2.051682083264649</v>
+        <v>1.208929738516658</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.5528612460179783</v>
+        <v>-0.2664930437529456</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6316178393080277</v>
+        <v>-1.269876042163318</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.592482953217171</v>
+        <v>-0.186785111228191</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5381812758527321</v>
+        <v>-1.406671830750196</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-2.007379635945866</v>
+        <v>0.573867408907407</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7932501335346021</v>
+        <v>0.5883358022834759</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1.899607018406318</v>
+        <v>-0.09670275477769234</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.304369331456773</v>
+        <v>1.167503622547805</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.4340548300510894</v>
+        <v>-0.1131536805013735</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.638244245072806</v>
+        <v>0.7904033614618435</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.2102590585728365</v>
+        <v>-0.1896192248347107</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5178731093051192</v>
+        <v>1.065428527689154</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2414126634162029</v>
+        <v>1.198772276916656</v>
       </c>
       <c r="F18" t="n">
-        <v>1.876469780957985</v>
+        <v>-0.5676902631209341</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.405400865809699</v>
+        <v>-2.181639797889649</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6290736147649679</v>
+        <v>-1.065762373981018</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.7253387267876777</v>
+        <v>0.07272967541565606</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1047248476118564</v>
+        <v>-1.254469301828627</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.7134397216511276</v>
+        <v>2.203476541728572</v>
       </c>
       <c r="F21" t="n">
-        <v>2.126092021225311</v>
+        <v>0.4810913812489171</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.446461373720544</v>
+        <v>-0.6879951036078905</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4143610276275757</v>
+        <v>-0.9922211271118737</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.053740018524536</v>
+        <v>1.941442388336306</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1496973810601769</v>
+        <v>0.8188934336393654</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.5654801983386762</v>
+        <v>-1.126399928083033</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3311412455941948</v>
+        <v>1.487083525499116</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.5872051513101276</v>
+        <v>0.1871838623205426</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.8296399909702128</v>
+        <v>-0.3944775136822936</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.418452516224823</v>
+        <v>-0.4146549371684273</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2900027486410862</v>
+        <v>1.240923015459994</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1737619219072195</v>
+        <v>0.7520851593821216</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1318117818907587</v>
+        <v>1.425479778250142</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1381504959447129</v>
+        <v>2.466195895189735</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3655512119490577</v>
+        <v>-0.6376060794291666</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.1912982778877517</v>
+        <v>-0.2644035141095984</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.729415394796793</v>
+        <v>0.06503890626753134</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.01296016052956615</v>
+        <v>-0.3430530419497182</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.279551655276576</v>
+        <v>0.2612659249575073</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1.464917713855024</v>
+        <v>0.06037835026078079</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7914923003165365</v>
+        <v>-1.068967215848495</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.452366477253921</v>
+        <v>0.7699294138851042</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01817350524292839</v>
+        <v>-0.4678050453671849</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2969536772395763</v>
+        <v>1.439609221483699</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4283666746704811</v>
+        <v>2.299928589036895</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6186244072840301</v>
+        <v>1.264226142582136</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09984424628762247</v>
+        <v>-0.1014391743932993</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5169602170358595</v>
+        <v>-0.4857250208387856</v>
       </c>
       <c r="F11" t="n">
-        <v>1.208929738516658</v>
+        <v>0.2997594502735673</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.2664930437529456</v>
+        <v>-1.026243843080456</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.269876042163318</v>
+        <v>0.5539964559530275</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.186785111228191</v>
+        <v>-0.8400953914608176</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.406671830750196</v>
+        <v>1.266005545514463</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.573867408907407</v>
+        <v>-0.4338744680152336</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5883358022834759</v>
+        <v>0.7571574316322917</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.09670275477769234</v>
+        <v>0.6748570246191032</v>
       </c>
       <c r="F15" t="n">
-        <v>1.167503622547805</v>
+        <v>2.062341359893273</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.1131536805013735</v>
+        <v>-0.07590960905677852</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7904033614618435</v>
+        <v>-0.3494417150045238</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.1896192248347107</v>
+        <v>1.141561464030517</v>
       </c>
       <c r="F17" t="n">
-        <v>1.065428527689154</v>
+        <v>0.01181302308147956</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.198772276916656</v>
+        <v>-2.370203248905145</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5676902631209341</v>
+        <v>1.526349277240183</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-2.181639797889649</v>
+        <v>-0.3110852707545148</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.065762373981018</v>
+        <v>0.9476232264979717</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.07272967541565606</v>
+        <v>-0.07757930401933441</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.254469301828627</v>
+        <v>0.3011352918088732</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.203476541728572</v>
+        <v>1.609137681692779</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4810913812489171</v>
+        <v>-0.1760335671655978</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.6879951036078905</v>
+        <v>0.07204123094918699</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.9922211271118737</v>
+        <v>2.51633059054872</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.941442388336306</v>
+        <v>-1.230436087231197</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8188934336393654</v>
+        <v>-0.922898094328342</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-1.126399928083033</v>
+        <v>0.3968213272441944</v>
       </c>
       <c r="F24" t="n">
-        <v>1.487083525499116</v>
+        <v>-1.588679965415337</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1871838623205426</v>
+        <v>-1.194531679203108</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.3944775136822936</v>
+        <v>-0.1066200378610615</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.4146549371684273</v>
+        <v>-0.3417969722088778</v>
       </c>
       <c r="F2" t="n">
-        <v>1.240923015459994</v>
+        <v>0.349000462315297</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.7520851593821216</v>
+        <v>-0.9762253203367869</v>
       </c>
       <c r="F3" t="n">
-        <v>1.425479778250142</v>
+        <v>0.0914715528514721</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.466195895189735</v>
+        <v>-1.255961491508267</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6376060794291666</v>
+        <v>-0.6365872477824153</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.2644035141095984</v>
+        <v>0.9191155411839201</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06503890626753134</v>
+        <v>-2.305687505144943</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.3430530419497182</v>
+        <v>1.442856033952015</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2612659249575073</v>
+        <v>1.140716391332816</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.06037835026078079</v>
+        <v>-0.3964544728900035</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.068967215848495</v>
+        <v>-0.5989282963539804</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7699294138851042</v>
+        <v>1.45640518664483</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4678050453671849</v>
+        <v>1.079285547304727</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.439609221483699</v>
+        <v>-1.114995248013318</v>
       </c>
       <c r="F9" t="n">
-        <v>2.299928589036895</v>
+        <v>0.7346404007578369</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.264226142582136</v>
+        <v>0.4655910159300111</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1014391743932993</v>
+        <v>-1.45311312062947</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.4857250208387856</v>
+        <v>-0.5282478046823341</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2997594502735673</v>
+        <v>-3.012863523327116</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1.026243843080456</v>
+        <v>-0.3160743663857365</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5539964559530275</v>
+        <v>1.867654633520632</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.8400953914608176</v>
+        <v>0.4872641993681039</v>
       </c>
       <c r="F13" t="n">
-        <v>1.266005545514463</v>
+        <v>0.6911189552524737</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.4338744680152336</v>
+        <v>-0.5133251799004507</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7571574316322917</v>
+        <v>-0.5265829462158605</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6748570246191032</v>
+        <v>-0.8345544854441013</v>
       </c>
       <c r="F15" t="n">
-        <v>2.062341359893273</v>
+        <v>-0.01275640452349254</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.07590960905677852</v>
+        <v>1.030977196852511</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3494417150045238</v>
+        <v>0.8178395331919969</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.141561464030517</v>
+        <v>1.18435845822219</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01181302308147956</v>
+        <v>0.705632444805087</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-2.370203248905145</v>
+        <v>1.487781845278551</v>
       </c>
       <c r="F18" t="n">
-        <v>1.526349277240183</v>
+        <v>1.464809302293733</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.3110852707545148</v>
+        <v>0.3384765207644349</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9476232264979717</v>
+        <v>0.1423944070584842</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.07757930401933441</v>
+        <v>0.3506517145667812</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3011352918088732</v>
+        <v>1.117754287805131</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.609137681692779</v>
+        <v>-0.1164640316682837</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1760335671655978</v>
+        <v>0.2694750484632565</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.07204123094918699</v>
+        <v>0.3080218302986071</v>
       </c>
       <c r="F22" t="n">
-        <v>2.51633059054872</v>
+        <v>-1.733824994771406</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.230436087231197</v>
+        <v>1.33001503850601</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.922898094328342</v>
+        <v>0.2181141088737684</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3968213272441944</v>
+        <v>1.885845543793471</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.588679965415337</v>
+        <v>-1.307867192079347</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1.194531679203108</v>
+        <v>-0.7966613596677188</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1066200378610615</v>
+        <v>1.033420809974405</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.3417969722088778</v>
+        <v>-0.2455264505759036</v>
       </c>
       <c r="F2" t="n">
-        <v>0.349000462315297</v>
+        <v>-0.9410457269660245</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.9762253203367869</v>
+        <v>-0.6668953843732228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0914715528514721</v>
+        <v>-1.27847608630053</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1.255961491508267</v>
+        <v>1.203129474613729</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6365872477824153</v>
+        <v>-0.575040795538534</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9191155411839201</v>
+        <v>-0.5997655697581795</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.305687505144943</v>
+        <v>0.5757733594654318</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.442856033952015</v>
+        <v>0.7998125719256193</v>
       </c>
       <c r="F6" t="n">
-        <v>1.140716391332816</v>
+        <v>-1.0237843283641</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.3964544728900035</v>
+        <v>0.6574816515531677</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5989282963539804</v>
+        <v>1.225479491852342</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.45640518664483</v>
+        <v>0.4569259311935582</v>
       </c>
       <c r="F8" t="n">
-        <v>1.079285547304727</v>
+        <v>0.4980110467155628</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-1.114995248013318</v>
+        <v>-0.1699177577293878</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7346404007578369</v>
+        <v>1.316682372455502</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.4655910159300111</v>
+        <v>-0.3202950896471515</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.45311312062947</v>
+        <v>-2.125750050880476</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.5282478046823341</v>
+        <v>1.168115506688815</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.012863523327116</v>
+        <v>-0.06578121851108452</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.3160743663857365</v>
+        <v>0.2233691581643588</v>
       </c>
       <c r="F12" t="n">
-        <v>1.867654633520632</v>
+        <v>-0.8652846503955788</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.4872641993681039</v>
+        <v>0.8933953680879891</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6911189552524737</v>
+        <v>-0.2447229104986533</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.5133251799004507</v>
+        <v>0.02605968995814099</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5265829462158605</v>
+        <v>0.4334044084814932</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.8345544854441013</v>
+        <v>1.628332161607133</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01275640452349254</v>
+        <v>1.995443438828717</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.030977196852511</v>
+        <v>-0.6946667073787959</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8178395331919969</v>
+        <v>0.5271657846065648</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.18435845822219</v>
+        <v>-0.66723155277797</v>
       </c>
       <c r="F17" t="n">
-        <v>0.705632444805087</v>
+        <v>-0.9701427297582826</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.487781845278551</v>
+        <v>1.058753883152793</v>
       </c>
       <c r="F18" t="n">
-        <v>1.464809302293733</v>
+        <v>-0.1473263286357519</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3384765207644349</v>
+        <v>0.8774274871545188</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1423944070584842</v>
+        <v>-3.381552738556619</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.3506517145667812</v>
+        <v>0.3394063444964933</v>
       </c>
       <c r="F20" t="n">
-        <v>1.117754287805131</v>
+        <v>-1.807751040590147</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.1164640316682837</v>
+        <v>0.5483851057353154</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2694750484632565</v>
+        <v>-0.2573425050780038</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3080218302986071</v>
+        <v>0.9987142999879255</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.733824994771406</v>
+        <v>-0.6232870028590856</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.33001503850601</v>
+        <v>-0.04221367261505174</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2181141088737684</v>
+        <v>0.5271128648469547</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.885845543793471</v>
+        <v>-1.183908249682831</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.307867192079347</v>
+        <v>0.3066151096259925</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.7966613596677188</v>
+        <v>-0.9539861526555182</v>
       </c>
       <c r="F25" t="n">
-        <v>1.033420809974405</v>
+        <v>0.4850768109019778</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.2455264505759036</v>
+        <v>-0.3374615924973304</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.9410457269660245</v>
+        <v>0.2013476472965294</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.6668953843732228</v>
+        <v>1.325184220167313</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.27847608630053</v>
+        <v>-1.548546758023523</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.203129474613729</v>
+        <v>0.1565461283882137</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.575040795538534</v>
+        <v>1.920769736671105</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.5997655697581795</v>
+        <v>0.3862585273310377</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5757733594654318</v>
+        <v>0.1076008918029425</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7998125719256193</v>
+        <v>-1.485470847037195</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.0237843283641</v>
+        <v>-0.2317790627898264</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6574816515531677</v>
+        <v>0.03793500446231724</v>
       </c>
       <c r="F7" t="n">
-        <v>1.225479491852342</v>
+        <v>-0.4051125980388968</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.4569259311935582</v>
+        <v>-0.6774144799967017</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4980110467155628</v>
+        <v>-1.011503029521476</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.1699177577293878</v>
+        <v>0.5057485143528202</v>
       </c>
       <c r="F9" t="n">
-        <v>1.316682372455502</v>
+        <v>-0.232242322840526</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.3202950896471515</v>
+        <v>0.4839650752043591</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.125750050880476</v>
+        <v>-2.000331906001583</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.168115506688815</v>
+        <v>-1.932268591191046</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06578121851108452</v>
+        <v>1.484617594690504</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2233691581643588</v>
+        <v>1.530122648310507</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8652846503955788</v>
+        <v>-1.01220938025476</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.8933953680879891</v>
+        <v>-1.431225724134011</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2447229104986533</v>
+        <v>-0.0333550315508364</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.02605968995814099</v>
+        <v>1.125500167341482</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4334044084814932</v>
+        <v>-0.6682366132521877</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.628332161607133</v>
+        <v>-1.766385906482046</v>
       </c>
       <c r="F15" t="n">
-        <v>1.995443438828717</v>
+        <v>0.8756725562496027</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.6946667073787959</v>
+        <v>0.2479441984656755</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5271657846065648</v>
+        <v>0.8736853047582935</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.66723155277797</v>
+        <v>-1.087784792929419</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9701427297582826</v>
+        <v>0.8361057122713309</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.058753883152793</v>
+        <v>-0.7291223467561827</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1473263286357519</v>
+        <v>-0.548420240869258</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.8774274871545188</v>
+        <v>1.792414388080281</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.381552738556619</v>
+        <v>-0.4043564321458543</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.3394063444964933</v>
+        <v>-0.01889705651790953</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.807751040590147</v>
+        <v>-0.3922926429633604</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5483851057353154</v>
+        <v>0.4977821797281851</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2573425050780038</v>
+        <v>0.01951097272739065</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.9987142999879255</v>
+        <v>1.07335665317275</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6232870028590856</v>
+        <v>-0.2792538281853269</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.04221367261505174</v>
+        <v>-1.362703185512347</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5271128648469547</v>
+        <v>0.53684459613985</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-1.183908249682831</v>
+        <v>-1.499175422587358</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3066151096259925</v>
+        <v>-1.151544411141187</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.9539861526555182</v>
+        <v>-1.211278702575415</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4850768109019778</v>
+        <v>-0.1373210124274889</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.3374615924973304</v>
+        <v>-0.5727957489965313</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2013476472965294</v>
+        <v>0.5198423326014239</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.325184220167313</v>
+        <v>0.4618562488703126</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.548546758023523</v>
+        <v>-0.1559583073754395</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1565461283882137</v>
+        <v>-0.3884999569788063</v>
       </c>
       <c r="F4" t="n">
-        <v>1.920769736671105</v>
+        <v>-0.0530100753400681</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3862585273310377</v>
+        <v>-1.525309167961886</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1076008918029425</v>
+        <v>-0.1850847797739028</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1.485470847037195</v>
+        <v>2.611969781740648</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2317790627898264</v>
+        <v>1.12651528077768</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.03793500446231724</v>
+        <v>0.3185286048470689</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4051125980388968</v>
+        <v>-0.8875651107130573</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.6774144799967017</v>
+        <v>-0.4340983595105492</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.011503029521476</v>
+        <v>0.7862157520768952</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5057485143528202</v>
+        <v>1.329944453738413</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.232242322840526</v>
+        <v>-0.02144263975302127</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.4839650752043591</v>
+        <v>0.6322748539454929</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.000331906001583</v>
+        <v>-1.627540071840415</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1.932268591191046</v>
+        <v>0.7467746549494753</v>
       </c>
       <c r="F11" t="n">
-        <v>1.484617594690504</v>
+        <v>0.7892025935539247</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.530122648310507</v>
+        <v>-0.3887195126642991</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.01220938025476</v>
+        <v>-0.005077009303564413</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-1.431225724134011</v>
+        <v>0.1171845679068473</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0333550315508364</v>
+        <v>-0.1328792902648326</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.125500167341482</v>
+        <v>-0.9829936544880765</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6682366132521877</v>
+        <v>-1.520536708099381</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1.766385906482046</v>
+        <v>2.520131519986549</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8756725562496027</v>
+        <v>-0.7963481749307806</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2479441984656755</v>
+        <v>-0.4874621337027736</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8736853047582935</v>
+        <v>0.1039440255483713</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1.087784792929419</v>
+        <v>-0.9398181681215357</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8361057122713309</v>
+        <v>0.0951330684477362</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.7291223467561827</v>
+        <v>0.06609028130245352</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.548420240869258</v>
+        <v>-0.9461374067474049</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.792414388080281</v>
+        <v>-0.133050362209234</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4043564321458543</v>
+        <v>-0.7200985314949501</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.01889705651790953</v>
+        <v>-0.8586442735879348</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.3922926429633604</v>
+        <v>-0.1649586673499484</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.4977821797281851</v>
+        <v>2.341415817029845</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01951097272739065</v>
+        <v>-0.3279057409412209</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.07335665317275</v>
+        <v>-0.9370685069127661</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2792538281853269</v>
+        <v>-1.877027921556012</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.362703185512347</v>
+        <v>0.9343349272992929</v>
       </c>
       <c r="F23" t="n">
-        <v>0.53684459613985</v>
+        <v>-0.3669102030007982</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-1.499175422587358</v>
+        <v>0.9198220515371942</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.151544411141187</v>
+        <v>2.007791811220628</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1.211278702575415</v>
+        <v>1.457588496539824</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1373210124274889</v>
+        <v>2.99376187318334</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.5727957489965313</v>
+        <v>-0.4656308941933643</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5198423326014239</v>
+        <v>2.372001524962409</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4618562488703126</v>
+        <v>-0.5245470218942954</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1559583073754395</v>
+        <v>-1.577526985715539</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.3884999569788063</v>
+        <v>0.9147700417036202</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0530100753400681</v>
+        <v>-0.3489226646488217</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.525309167961886</v>
+        <v>-0.2888841708117922</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1850847797739028</v>
+        <v>0.2214085139041728</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.611969781740648</v>
+        <v>0.3585355342974076</v>
       </c>
       <c r="F6" t="n">
-        <v>1.12651528077768</v>
+        <v>0.1106315621644391</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.3185286048470689</v>
+        <v>-0.0626185465238589</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8875651107130573</v>
+        <v>0.8614073321099411</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.4340983595105492</v>
+        <v>0.3057734521175716</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7862157520768952</v>
+        <v>-0.9150320561627608</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.329944453738413</v>
+        <v>-0.03358981745425575</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02144263975302127</v>
+        <v>-1.760818669386907</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6322748539454929</v>
+        <v>0.7875518912126361</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.627540071840415</v>
+        <v>0.4241475803764884</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7467746549494753</v>
+        <v>-1.120553771736857</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7892025935539247</v>
+        <v>1.487769295118378</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.3887195126642991</v>
+        <v>0.4694376290825542</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.005077009303564413</v>
+        <v>0.6014963973640215</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1171845679068473</v>
+        <v>-0.4126892398761569</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1328792902648326</v>
+        <v>-1.525448001419873</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.9829936544880765</v>
+        <v>-1.066851636512422</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.520536708099381</v>
+        <v>0.928811663590195</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2.520131519986549</v>
+        <v>1.192697344006997</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7963481749307806</v>
+        <v>-0.7476272233375119</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.4874621337027736</v>
+        <v>0.1809121710813987</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1039440255483713</v>
+        <v>0.3219623561933663</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.9398181681215357</v>
+        <v>-1.164974562214583</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0951330684477362</v>
+        <v>1.334079362564953</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.06609028130245352</v>
+        <v>0.2666256554910313</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9461374067474049</v>
+        <v>-1.532822742982989</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.133050362209234</v>
+        <v>0.3529657197827819</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7200985314949501</v>
+        <v>-1.366991206737121</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.8586442735879348</v>
+        <v>-0.6226523437786161</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1649586673499484</v>
+        <v>0.7526154524377944</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.341415817029845</v>
+        <v>0.3054268671786153</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3279057409412209</v>
+        <v>0.503312306532522</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.9370685069127661</v>
+        <v>1.563811607774464</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.877027921556012</v>
+        <v>-1.159085026669263</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.9343349272992929</v>
+        <v>-0.6611244769450831</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3669102030007982</v>
+        <v>0.07847530695882708</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.9198220515371942</v>
+        <v>0.7782152073928461</v>
       </c>
       <c r="F24" t="n">
-        <v>2.007791811220628</v>
+        <v>-1.41430586161723</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.457588496539824</v>
+        <v>-0.6479370394193688</v>
       </c>
       <c r="F25" t="n">
-        <v>2.99376187318334</v>
+        <v>-0.5015106746860777</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.4656308941933643</v>
+        <v>1.626583371923614</v>
       </c>
       <c r="F2" t="n">
-        <v>2.372001524962409</v>
+        <v>0.5937531817553028</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.5245470218942954</v>
+        <v>0.5462537638150015</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.577526985715539</v>
+        <v>1.287347312383729</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.9147700417036202</v>
+        <v>0.3376822076185432</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3489226646488217</v>
+        <v>0.819141294529156</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.2888841708117922</v>
+        <v>0.9363155075519807</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2214085139041728</v>
+        <v>1.229108298091564</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3585355342974076</v>
+        <v>1.725170138629678</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1106315621644391</v>
+        <v>-0.3600773323404329</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.0626185465238589</v>
+        <v>1.173761474660538</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8614073321099411</v>
+        <v>0.0768823466245262</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.3057734521175716</v>
+        <v>0.5262467521605382</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9150320561627608</v>
+        <v>0.7785804102028056</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.03358981745425575</v>
+        <v>0.7533108411193116</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.760818669386907</v>
+        <v>-2.576261091481134</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7875518912126361</v>
+        <v>1.996855950762223</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4241475803764884</v>
+        <v>1.629120669936589</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1.120553771736857</v>
+        <v>0.1807043670172895</v>
       </c>
       <c r="F11" t="n">
-        <v>1.487769295118378</v>
+        <v>0.03208283411837966</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.4694376290825542</v>
+        <v>-0.5735957223832724</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6014963973640215</v>
+        <v>0.9395557524514251</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.4126892398761569</v>
+        <v>0.4904997125685014</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.525448001419873</v>
+        <v>1.499831443605254</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1.066851636512422</v>
+        <v>0.7556614590814399</v>
       </c>
       <c r="F14" t="n">
-        <v>0.928811663590195</v>
+        <v>-1.346846158397167</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.192697344006997</v>
+        <v>-0.6848545441407309</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7476272233375119</v>
+        <v>0.7682672288618317</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1809121710813987</v>
+        <v>0.4053177990485201</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3219623561933663</v>
+        <v>-2.063658438428718</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1.164974562214583</v>
+        <v>1.027529720190713</v>
       </c>
       <c r="F17" t="n">
-        <v>1.334079362564953</v>
+        <v>0.707699509402991</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2666256554910313</v>
+        <v>-0.1310896214139306</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.532822742982989</v>
+        <v>-1.015711767049229</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3529657197827819</v>
+        <v>-2.15799845695213</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.366991206737121</v>
+        <v>-0.09679947991722337</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.6226523437786161</v>
+        <v>1.003136398145841</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7526154524377944</v>
+        <v>-0.6545100799681901</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3054268671786153</v>
+        <v>1.649719962847447</v>
       </c>
       <c r="F21" t="n">
-        <v>0.503312306532522</v>
+        <v>-0.5303622428489583</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.563811607774464</v>
+        <v>0.1536192319613528</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.159085026669263</v>
+        <v>0.1306573317606736</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.6611244769450831</v>
+        <v>-0.160450499960537</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07847530695882708</v>
+        <v>-0.8633937060076911</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.7782152073928461</v>
+        <v>0.2265717037908166</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.41430586161723</v>
+        <v>2.179084887034835</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.6479370394193688</v>
+        <v>1.020016987360795</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5015106746860777</v>
+        <v>1.243287480877006</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.626583371923614</v>
+        <v>-1.604290879027219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5937531817553028</v>
+        <v>-2.025371237848494</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5462537638150015</v>
+        <v>-0.06849646375271579</v>
       </c>
       <c r="F3" t="n">
-        <v>1.287347312383729</v>
+        <v>0.3229688538292577</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3376822076185432</v>
+        <v>0.1370175368594737</v>
       </c>
       <c r="F4" t="n">
-        <v>0.819141294529156</v>
+        <v>0.1131375328885956</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.9363155075519807</v>
+        <v>2.220466534525668</v>
       </c>
       <c r="F5" t="n">
-        <v>1.229108298091564</v>
+        <v>-0.8006099722438552</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.725170138629678</v>
+        <v>-0.3936621098098745</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3600773323404329</v>
+        <v>1.49142539078682</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.173761474660538</v>
+        <v>-0.6195875997671847</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0768823466245262</v>
+        <v>-0.4682891061403841</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5262467521605382</v>
+        <v>0.05534494390312437</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7785804102028056</v>
+        <v>-0.664388708655667</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7533108411193116</v>
+        <v>0.833181986049255</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.576261091481134</v>
+        <v>1.042815988038971</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.996855950762223</v>
+        <v>-0.4268151793536998</v>
       </c>
       <c r="F10" t="n">
-        <v>1.629120669936589</v>
+        <v>-0.3264512850328461</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1807043670172895</v>
+        <v>-0.9119854435224128</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03208283411837966</v>
+        <v>1.3396716350511</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.5735957223832724</v>
+        <v>-0.87449242284477</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9395557524514251</v>
+        <v>-0.3296864518916353</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.4904997125685014</v>
+        <v>0.7847315641078816</v>
       </c>
       <c r="F13" t="n">
-        <v>1.499831443605254</v>
+        <v>-1.38856153727279</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7556614590814399</v>
+        <v>1.680893624118788</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.346846158397167</v>
+        <v>-0.6517645650467561</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.6848545441407309</v>
+        <v>0.1887541198551582</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7682672288618317</v>
+        <v>0.542539189764328</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.4053177990485201</v>
+        <v>-0.061706579405295</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.063658438428718</v>
+        <v>-1.378260890381302</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.027529720190713</v>
+        <v>0.6210828827293092</v>
       </c>
       <c r="F17" t="n">
-        <v>0.707699509402991</v>
+        <v>-1.051961953274684</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.1310896214139306</v>
+        <v>-1.695010398869947</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.015711767049229</v>
+        <v>0.3742144413139829</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-2.15799845695213</v>
+        <v>0.784824659327496</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.09679947991722337</v>
+        <v>-1.277139743922133</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.003136398145841</v>
+        <v>-1.036501865375332</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6545100799681901</v>
+        <v>0.4090486935253118</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.649719962847447</v>
+        <v>-0.1532264218248257</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5303622428489583</v>
+        <v>-0.5146112066362365</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1536192319613528</v>
+        <v>0.7035709388125477</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1306573317606736</v>
+        <v>1.993327243458609</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.160450499960537</v>
+        <v>0.7712870589451704</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.8633937060076911</v>
+        <v>-1.367054141563777</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2265717037908166</v>
+        <v>0.04539356067219007</v>
       </c>
       <c r="F24" t="n">
-        <v>2.179084887034835</v>
+        <v>0.6864524661845404</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.020016987360795</v>
+        <v>-2.006684883703328</v>
       </c>
       <c r="F25" t="n">
-        <v>1.243287480877006</v>
+        <v>0.3061464674340328</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1.604290879027219</v>
+        <v>1.662295162298983</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.025371237848494</v>
+        <v>-1.250186074491303</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.06849646375271579</v>
+        <v>-0.05684609662907796</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3229688538292577</v>
+        <v>-0.09123932614475377</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1370175368594737</v>
+        <v>-0.6755692464852592</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1131375328885956</v>
+        <v>-0.7236167882763542</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.220466534525668</v>
+        <v>-0.9959431928299068</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8006099722438552</v>
+        <v>0.6168009442163984</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.3936621098098745</v>
+        <v>-0.3399373175512296</v>
       </c>
       <c r="F6" t="n">
-        <v>1.49142539078682</v>
+        <v>-0.2128007715828472</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.6195875997671847</v>
+        <v>0.4141576902862267</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4682891061403841</v>
+        <v>0.2532532103325349</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.05534494390312437</v>
+        <v>-1.877536116133735</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.664388708655667</v>
+        <v>-0.1500084457331698</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.833181986049255</v>
+        <v>-0.2710094038326917</v>
       </c>
       <c r="F9" t="n">
-        <v>1.042815988038971</v>
+        <v>0.1705568837093809</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.4268151793536998</v>
+        <v>0.6266707944096557</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.3264512850328461</v>
+        <v>1.398781671072219</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.9119854435224128</v>
+        <v>-0.03801065301565281</v>
       </c>
       <c r="F11" t="n">
-        <v>1.3396716350511</v>
+        <v>0.1229969614652855</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.87449242284477</v>
+        <v>0.5789110644003109</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3296864518916353</v>
+        <v>1.833664404604718</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7847315641078816</v>
+        <v>0.5681166637646879</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.38856153727279</v>
+        <v>0.9809977536877439</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.680893624118788</v>
+        <v>1.449504541167354</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6517645650467561</v>
+        <v>-2.487409795117934</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1887541198551582</v>
+        <v>-1.319002245783207</v>
       </c>
       <c r="F15" t="n">
-        <v>0.542539189764328</v>
+        <v>-0.2567402764126081</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.061706579405295</v>
+        <v>1.190259289873681</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.378260890381302</v>
+        <v>-0.06375792923548278</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.6210828827293092</v>
+        <v>-0.5410245025115178</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.051961953274684</v>
+        <v>-0.8696229068552578</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-1.695010398869947</v>
+        <v>-0.6685629297837132</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3742144413139829</v>
+        <v>-0.7844216542283949</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.784824659327496</v>
+        <v>1.582454873307778</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.277139743922133</v>
+        <v>-0.08622218578260515</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.036501865375332</v>
+        <v>-0.0333757240421841</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4090486935253118</v>
+        <v>-2.171647929289768</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.1532264218248257</v>
+        <v>1.026718451244181</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5146112066362365</v>
+        <v>-0.7570509201299217</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.7035709388125477</v>
+        <v>0.8511174428707751</v>
       </c>
       <c r="F22" t="n">
-        <v>1.993327243458609</v>
+        <v>-1.170310972837052</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7712870589451704</v>
+        <v>-0.183441023344151</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.367054141563777</v>
+        <v>-0.07814723195094787</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.04539356067219007</v>
+        <v>0.2549045123278935</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6864524661845404</v>
+        <v>-0.1363101222525953</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-2.006684883703328</v>
+        <v>1.211460900407939</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3061464674340328</v>
+        <v>-1.33448433460276</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.662295162298983</v>
+        <v>-3.363617124526958</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.250186074491303</v>
+        <v>-1.284768614248696</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.05684609662907796</v>
+        <v>-1.132050174951039</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09123932614475377</v>
+        <v>-0.9223676725707846</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.6755692464852592</v>
+        <v>-0.4765322687968925</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7236167882763542</v>
+        <v>0.1409694937263837</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.9959431928299068</v>
+        <v>-1.625477947633508</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6168009442163984</v>
+        <v>0.6363171277903852</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.3399373175512296</v>
+        <v>2.399261284826212</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2128007715828472</v>
+        <v>1.241363701539113</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4141576902862267</v>
+        <v>0.686632008010049</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2532532103325349</v>
+        <v>0.07684241493276892</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.877536116133735</v>
+        <v>0.5293980373397813</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1500084457331698</v>
+        <v>0.859213628319393</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.2710094038326917</v>
+        <v>0.2212068968464929</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1705568837093809</v>
+        <v>0.9666133322280567</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6266707944096557</v>
+        <v>-0.2344689246662244</v>
       </c>
       <c r="F10" t="n">
-        <v>1.398781671072219</v>
+        <v>-1.211258600357076</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.03801065301565281</v>
+        <v>0.6325238804873864</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1229969614652855</v>
+        <v>-0.5314911473354013</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5789110644003109</v>
+        <v>0.708367669477991</v>
       </c>
       <c r="F12" t="n">
-        <v>1.833664404604718</v>
+        <v>1.602355887693216</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5681166637646879</v>
+        <v>0.03104101291195798</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9809977536877439</v>
+        <v>0.384333200478588</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.449504541167354</v>
+        <v>0.4687395999432081</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.487409795117934</v>
+        <v>-0.9887195988459245</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1.319002245783207</v>
+        <v>0.149571843446204</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2567402764126081</v>
+        <v>-1.25553367176661</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.190259289873681</v>
+        <v>0.8701425383217108</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06375792923548278</v>
+        <v>0.06647561940296297</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.5410245025115178</v>
+        <v>-0.8464146691970555</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8696229068552578</v>
+        <v>2.010073018354236</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.6685629297837132</v>
+        <v>-2.016311554116806</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7844216542283949</v>
+        <v>-0.7248504022172313</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.582454873307778</v>
+        <v>1.174201535432708</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.08622218578260515</v>
+        <v>0.1985192158416811</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.0333757240421841</v>
+        <v>-0.504723302428757</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.171647929289768</v>
+        <v>-2.079332070759978</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.026718451244181</v>
+        <v>-0.4094474240610674</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7570509201299217</v>
+        <v>-0.186008994183741</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.8511174428707751</v>
+        <v>1.14984644014587</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.170310972837052</v>
+        <v>0.3655701629050561</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.183441023344151</v>
+        <v>1.121605666875488</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.07814723195094787</v>
+        <v>-0.2272201777048242</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2549045123278935</v>
+        <v>-0.08560193665036095</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1363101222525953</v>
+        <v>0.7452677909179081</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.211460900407939</v>
+        <v>-1.01624327103024</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.33448433460276</v>
+        <v>0.1317773258093406</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-3.363617124526958</v>
+        <v>0.4425737250913466</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.284768614248696</v>
+        <v>-2.206999591953088</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1.132050174951039</v>
+        <v>-1.034934683658564</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9223676725707846</v>
+        <v>1.283108149253729</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.4765322687968925</v>
+        <v>1.211954486794787</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1409694937263837</v>
+        <v>-0.5435595184191211</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.625477947633508</v>
+        <v>-1.383806653715948</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6363171277903852</v>
+        <v>-1.243676484506493</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.399261284826212</v>
+        <v>-0.2850457358534051</v>
       </c>
       <c r="F6" t="n">
-        <v>1.241363701539113</v>
+        <v>0.2163123908088207</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.686632008010049</v>
+        <v>-0.9673231266795703</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07684241493276892</v>
+        <v>0.7478417124065869</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5293980373397813</v>
+        <v>0.520586223964842</v>
       </c>
       <c r="F8" t="n">
-        <v>0.859213628319393</v>
+        <v>0.4084813056548409</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2212068968464929</v>
+        <v>-1.381930244949818</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9666133322280567</v>
+        <v>0.6901509289401291</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.2344689246662244</v>
+        <v>-0.2523019450778439</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.211258600357076</v>
+        <v>-0.08510193262985949</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.6325238804873864</v>
+        <v>1.315365870105659</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5314911473354013</v>
+        <v>2.85961580800305</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.708367669477991</v>
+        <v>-1.019597868668213</v>
       </c>
       <c r="F12" t="n">
-        <v>1.602355887693216</v>
+        <v>-0.7466195317566311</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.03104101291195798</v>
+        <v>1.211130924164544</v>
       </c>
       <c r="F13" t="n">
-        <v>0.384333200478588</v>
+        <v>0.9348936848363254</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.4687395999432081</v>
+        <v>-0.9536610629087234</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9887195988459245</v>
+        <v>0.3383535676685257</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.149571843446204</v>
+        <v>-0.1978933940301588</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.25553367176661</v>
+        <v>-0.0296175334879942</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.8701425383217108</v>
+        <v>0.03507755280253609</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06647561940296297</v>
+        <v>-0.2679625700264163</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.8464146691970555</v>
+        <v>2.478424443853093</v>
       </c>
       <c r="F17" t="n">
-        <v>2.010073018354236</v>
+        <v>1.275592463450113</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-2.016311554116806</v>
+        <v>-0.696919014536305</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7248504022172313</v>
+        <v>-1.360605338176126</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.174201535432708</v>
+        <v>0.6000552489590221</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1985192158416811</v>
+        <v>-0.6523308483673269</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.504723302428757</v>
+        <v>-3.113243870848696</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.079332070759978</v>
+        <v>-2.948237315442866</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.4094474240610674</v>
+        <v>0.4084777054146524</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.186008994183741</v>
+        <v>0.3345678107433749</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.14984644014587</v>
+        <v>-1.263915900806039</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3655701629050561</v>
+        <v>-0.8430916408476884</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.121605666875488</v>
+        <v>-2.163570441688556</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2272201777048242</v>
+        <v>-0.7189635583421626</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.08560193665036095</v>
+        <v>-2.035145938009201</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7452677909179081</v>
+        <v>0.8463648654459066</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-1.01624327103024</v>
+        <v>1.222982908140644</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1317773258093406</v>
+        <v>0.1804336649027291</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.4425737250913466</v>
+        <v>0.8667002226908306</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.206999591953088</v>
+        <v>-0.3919539999527404</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1.034934683658564</v>
+        <v>0.1284867142232198</v>
       </c>
       <c r="F3" t="n">
-        <v>1.283108149253729</v>
+        <v>-0.6641599302981263</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.211954486794787</v>
+        <v>-0.6057943738067704</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5435595184191211</v>
+        <v>-0.8798728431862812</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.383806653715948</v>
+        <v>1.246883436767345</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.243676484506493</v>
+        <v>1.615424809965235</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.2850457358534051</v>
+        <v>1.458263319364401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2163123908088207</v>
+        <v>-1.742412014224357</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.9673231266795703</v>
+        <v>0.02220522976045262</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7478417124065869</v>
+        <v>-1.676870166927622</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.520586223964842</v>
+        <v>-0.6756594883687451</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4084813056548409</v>
+        <v>-2.378216473594859</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-1.381930244949818</v>
+        <v>0.8692895309714966</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6901509289401291</v>
+        <v>0.5997668065999162</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.2523019450778439</v>
+        <v>-0.9842503506958079</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08510193262985949</v>
+        <v>-0.08676316713202233</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.315365870105659</v>
+        <v>1.776413880255056</v>
       </c>
       <c r="F11" t="n">
-        <v>2.85961580800305</v>
+        <v>-0.007976667512593467</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1.019597868668213</v>
+        <v>-0.4630374912219221</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7466195317566311</v>
+        <v>2.185487666296906</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.211130924164544</v>
+        <v>-1.68203456060798</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9348936848363254</v>
+        <v>-0.5281797447370641</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.9536610629087234</v>
+        <v>-0.649296904544915</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3383535676685257</v>
+        <v>-0.2024061785650638</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.1978933940301588</v>
+        <v>-0.4265629130431298</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0296175334879942</v>
+        <v>-0.1345537306760669</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.03507755280253609</v>
+        <v>-0.2497527038999155</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2679625700264163</v>
+        <v>-1.19668517923216</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.478424443853093</v>
+        <v>0.7784704240110371</v>
       </c>
       <c r="F17" t="n">
-        <v>1.275592463450113</v>
+        <v>0.2765009626680235</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.696919014536305</v>
+        <v>0.7962733976413444</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.360605338176126</v>
+        <v>-0.8463312620875466</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6000552489590221</v>
+        <v>0.3020377488397086</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6523308483673269</v>
+        <v>-0.6231912749287914</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-3.113243870848696</v>
+        <v>0.218331776201884</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.948237315442866</v>
+        <v>1.801553867704813</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.4084777054146524</v>
+        <v>0.5663093229179728</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3345678107433749</v>
+        <v>1.652159988206367</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-1.263915900806039</v>
+        <v>-1.134102827711964</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.8430916408476884</v>
+        <v>1.824826563776841</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2.163570441688556</v>
+        <v>0.0566649464039489</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.7189635583421626</v>
+        <v>0.2224863166646715</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-2.035145938009201</v>
+        <v>1.336599634704567</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8463648654459066</v>
+        <v>-1.557439108147726</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.222982908140644</v>
+        <v>0.1459405485396584</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1804336649027291</v>
+        <v>-1.21135370431422</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8667002226908306</v>
+        <v>0.8207553721855091</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3919539999527404</v>
+        <v>0.5097949288303409</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1284867142232198</v>
+        <v>-1.006335760582656</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6641599302981263</v>
+        <v>0.5837177671367093</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.6057943738067704</v>
+        <v>-1.214277305629399</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8798728431862812</v>
+        <v>0.9472495239106224</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.246883436767345</v>
+        <v>2.06261678251779</v>
       </c>
       <c r="F5" t="n">
-        <v>1.615424809965235</v>
+        <v>0.9167395213324614</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.458263319364401</v>
+        <v>-1.92656827869432</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.742412014224357</v>
+        <v>1.064661884220685</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.02220522976045262</v>
+        <v>-0.9575214204064846</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.676870166927622</v>
+        <v>0.7621511218021414</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.6756594883687451</v>
+        <v>0.862210232487414</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.378216473594859</v>
+        <v>0.3666314110914825</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8692895309714966</v>
+        <v>2.065517686829014</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5997668065999162</v>
+        <v>-0.3991041391032483</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.9842503506958079</v>
+        <v>-0.1628365833230301</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08676316713202233</v>
+        <v>-1.137371264071947</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.776413880255056</v>
+        <v>-0.5581393634747231</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.007976667512593467</v>
+        <v>1.272416753943452</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-0.4630374912219221</v>
+        <v>-1.069289846465119</v>
       </c>
       <c r="F12" t="n">
-        <v>2.185487666296906</v>
+        <v>-0.1915106274928149</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-1.68203456060798</v>
+        <v>-0.8106500011467136</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5281797447370641</v>
+        <v>-0.6835394505410888</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.649296904544915</v>
+        <v>0.5730655837213651</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2024061785650638</v>
+        <v>0.6680026546775693</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.4265629130431298</v>
+        <v>-0.3486743651749036</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1345537306760669</v>
+        <v>1.273503830964863</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.2497527038999155</v>
+        <v>-0.9989417482981828</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.19668517923216</v>
+        <v>-0.9100758181110614</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7784704240110371</v>
+        <v>1.29293184332633</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2765009626680235</v>
+        <v>-1.237495556494978</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7962733976413444</v>
+        <v>0.08896828133891145</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.8463312620875466</v>
+        <v>0.9849372171974713</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3020377488397086</v>
+        <v>1.567537981862943</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6231912749287914</v>
+        <v>-1.387234298648265</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.218331776201884</v>
+        <v>0.3441259235439954</v>
       </c>
       <c r="F20" t="n">
-        <v>1.801553867704813</v>
+        <v>0.796396578979445</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5663093229179728</v>
+        <v>-2.291332622453398</v>
       </c>
       <c r="F21" t="n">
-        <v>1.652159988206367</v>
+        <v>-0.6650586691954478</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-1.134102827711964</v>
+        <v>-0.9746686193882695</v>
       </c>
       <c r="F22" t="n">
-        <v>1.824826563776841</v>
+        <v>0.8742021286192188</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.0566649464039489</v>
+        <v>-0.2778172464509382</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2224863166646715</v>
+        <v>0.2103509845053859</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.336599634704567</v>
+        <v>-0.8631708122247033</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.557439108147726</v>
+        <v>0.3762828302897597</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1459405485396584</v>
+        <v>0.4086659873438721</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.21135370431422</v>
+        <v>-0.4495402198305531</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8207553721855091</v>
+        <v>0.5101536365701218</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5097949288303409</v>
+        <v>-0.04324514501927484</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1.006335760582656</v>
+        <v>-0.04185129950900219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5837177671367093</v>
+        <v>-0.4724603684386915</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1.214277305629399</v>
+        <v>-0.001869364150896132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9472495239106224</v>
+        <v>0.1951740867474302</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.06261678251779</v>
+        <v>-0.4995859456941544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9167395213324614</v>
+        <v>-0.09017690297644587</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-1.92656827869432</v>
+        <v>-0.09933981665973887</v>
       </c>
       <c r="F6" t="n">
-        <v>1.064661884220685</v>
+        <v>0.5594849780144672</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.9575214204064846</v>
+        <v>0.295291163015159</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7621511218021414</v>
+        <v>0.8035266163909804</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.862210232487414</v>
+        <v>0.354622667456043</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3666314110914825</v>
+        <v>1.118444711735697</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.065517686829014</v>
+        <v>-0.5216603315744491</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3991041391032483</v>
+        <v>-0.1644559349078923</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.1628365833230301</v>
+        <v>1.786423841143593</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.137371264071947</v>
+        <v>0.752839760516682</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.5581393634747231</v>
+        <v>-1.117318159319877</v>
       </c>
       <c r="F11" t="n">
-        <v>1.272416753943452</v>
+        <v>0.3768528569671144</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1.069289846465119</v>
+        <v>0.4755947769486271</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1915106274928149</v>
+        <v>-1.696242288101591</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.8106500011467136</v>
+        <v>-0.9485741222327577</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6835394505410888</v>
+        <v>0.9040547157683825</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.5730655837213651</v>
+        <v>0.6935487328866798</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6680026546775693</v>
+        <v>-0.4224193120524621</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.3486743651749036</v>
+        <v>0.1480160433438208</v>
       </c>
       <c r="F15" t="n">
-        <v>1.273503830964863</v>
+        <v>0.7230374260929177</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.9989417482981828</v>
+        <v>-0.5134298362010673</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9100758181110614</v>
+        <v>-0.1544771220059272</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.29293184332633</v>
+        <v>3.0027331437071</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.237495556494978</v>
+        <v>-1.672400224456033</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.08896828133891145</v>
+        <v>-0.3087799738946848</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9849372171974713</v>
+        <v>0.8613405534185452</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.567537981862943</v>
+        <v>-2.423932692285102</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.387234298648265</v>
+        <v>-0.250176964536046</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.3441259235439954</v>
+        <v>-0.4381325677192926</v>
       </c>
       <c r="F20" t="n">
-        <v>0.796396578979445</v>
+        <v>1.403988626090804</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-2.291332622453398</v>
+        <v>-1.680626388189121</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6650586691954478</v>
+        <v>-0.2917233784373744</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.9746686193882695</v>
+        <v>-0.2282566376755227</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8742021286192188</v>
+        <v>-0.1462404203375594</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.2778172464509382</v>
+        <v>-0.9636391447224855</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2103509845053859</v>
+        <v>1.441963334653785</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.8631708122247033</v>
+        <v>1.014793333584824</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3762828302897597</v>
+        <v>-0.6225478856455767</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.4086659873438721</v>
+        <v>0.08663209991705796</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4495402198305531</v>
+        <v>0.2554869445724394</v>
       </c>
     </row>
   </sheetData>

--- a/jupyter-book/foo.xlsx
+++ b/jupyter-book/foo.xlsx
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.5101536365701218</v>
+        <v>0.7764236833430556</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04324514501927484</v>
+        <v>0.8170778532451984</v>
       </c>
     </row>
     <row r="3">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.04185129950900219</v>
+        <v>0.09382686007222016</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4724603684386915</v>
+        <v>-0.9982851106815441</v>
       </c>
     </row>
     <row r="4">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.001869364150896132</v>
+        <v>0.1388282408138976</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1951740867474302</v>
+        <v>-1.1139330257275</v>
       </c>
     </row>
     <row r="5">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.4995859456941544</v>
+        <v>1.429956771318914</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09017690297644587</v>
+        <v>-1.856609155781051</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.09933981665973887</v>
+        <v>0.01047290604515307</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5594849780144672</v>
+        <v>0.02180086309491644</v>
       </c>
     </row>
     <row r="7">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.295291163015159</v>
+        <v>1.340742510472924</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8035266163909804</v>
+        <v>-0.8405646205530857</v>
       </c>
     </row>
     <row r="8">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.354622667456043</v>
+        <v>-1.635368643668407</v>
       </c>
       <c r="F8" t="n">
-        <v>1.118444711735697</v>
+        <v>1.112567823327663</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.5216603315744491</v>
+        <v>-1.255402016509936</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1644559349078923</v>
+        <v>-0.2668205462051651</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.786423841143593</v>
+        <v>-1.065908863020001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.752839760516682</v>
+        <v>-1.282270665347643</v>
       </c>
     </row>
     <row r="11">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1.117318159319877</v>
+        <v>2.147699402458404</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3768528569671144</v>
+        <v>0.3959136328315888</v>
       </c>
     </row>
     <row r="12">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.4755947769486271</v>
+        <v>0.3946617403581752</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.696242288101591</v>
+        <v>0.2825345733785752</v>
       </c>
     </row>
     <row r="13">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.9485741222327577</v>
+        <v>-1.711188043131423</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9040547157683825</v>
+        <v>1.467835774457777</v>
       </c>
     </row>
     <row r="14">
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.6935487328866798</v>
+        <v>-0.1869472108659136</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4224193120524621</v>
+        <v>-0.1140219894939117</v>
       </c>
     </row>
     <row r="15">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.1480160433438208</v>
+        <v>1.720723732131483</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7230374260929177</v>
+        <v>0.100471965116747</v>
       </c>
     </row>
     <row r="16">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.5134298362010673</v>
+        <v>-0.1662862522732796</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1544771220059272</v>
+        <v>-0.6671265224983089</v>
       </c>
     </row>
     <row r="17">
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.0027331437071</v>
+        <v>2.204657842547227</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.672400224456033</v>
+        <v>0.4949909092607676</v>
       </c>
     </row>
     <row r="18">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-0.3087799738946848</v>
+        <v>0.3942280628413342</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8613405534185452</v>
+        <v>-0.569817239961914</v>
       </c>
     </row>
     <row r="19">
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-2.423932692285102</v>
+        <v>1.751029106431034</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.250176964536046</v>
+        <v>-1.567336807400006</v>
       </c>
     </row>
     <row r="20">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.4381325677192926</v>
+        <v>0.9399329823084175</v>
       </c>
       <c r="F20" t="n">
-        <v>1.403988626090804</v>
+        <v>1.337548377128088</v>
       </c>
     </row>
     <row r="21">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1.680626388189121</v>
+        <v>-0.04723008393854714</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2917233784373744</v>
+        <v>-1.332323950316126</v>
       </c>
     </row>
     <row r="22">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.2282566376755227</v>
+        <v>0.3310891679793031</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1462404203375594</v>
+        <v>-1.057166773938294</v>
       </c>
     </row>
     <row r="23">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.9636391447224855</v>
+        <v>0.09218001145084048</v>
       </c>
       <c r="F23" t="n">
-        <v>1.441963334653785</v>
+        <v>0.6866468629172232</v>
       </c>
     </row>
     <row r="24">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.014793333584824</v>
+        <v>-0.4573751826565543</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6225478856455767</v>
+        <v>0.402586318361482</v>
       </c>
     </row>
     <row r="25">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.08663209991705796</v>
+        <v>0.3726718314214668</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2554869445724394</v>
+        <v>-0.2773456489130846</v>
       </c>
     </row>
   </sheetData>
